--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -1076,7 +1076,7 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>TOY GALLERY -AYUSH</t>
+  </si>
+  <si>
+    <t>gst</t>
   </si>
 </sst>
 </file>
@@ -288,7 +291,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -403,9 +406,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-254</v>
+        <v>-40254</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>30736</v>
+        <v>-9264</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1201,35 +1201,43 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44608</v>
+      </c>
+      <c r="G7" s="16">
+        <v>40000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>119196</v>
+        <v>79196</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="16">
+        <v>1200</v>
+      </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="52"/>
+      <c r="D8" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
@@ -1237,15 +1245,15 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
@@ -1253,15 +1261,15 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
@@ -1269,15 +1277,15 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
@@ -1285,15 +1293,15 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="53"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
@@ -1301,15 +1309,15 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="53"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
@@ -1317,15 +1325,15 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="53"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
@@ -1333,15 +1341,15 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="53"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
       <c r="D16" s="18"/>
@@ -1349,15 +1357,15 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="53"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
@@ -1365,15 +1373,15 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="53"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="18"/>
@@ -1381,15 +1389,15 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="53"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="18"/>
@@ -1397,15 +1405,15 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="53"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="18"/>
@@ -1413,15 +1421,15 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="53"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="18"/>
@@ -1429,15 +1437,15 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="53"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
       <c r="D22" s="18"/>
@@ -1445,15 +1453,15 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="53"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="18"/>
@@ -1461,15 +1469,15 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="53"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="18"/>
@@ -1477,15 +1485,15 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="53"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="18"/>
@@ -1493,15 +1501,15 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="53"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="18"/>
@@ -1509,15 +1517,15 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="53"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="18"/>
@@ -1525,15 +1533,15 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="53"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="18"/>
@@ -1541,15 +1549,15 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="53"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
       <c r="D29" s="18"/>
@@ -1557,15 +1565,15 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="53"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
       <c r="D30" s="18"/>
@@ -1573,15 +1581,15 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="53"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
       <c r="D31" s="18"/>
@@ -1589,15 +1597,15 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="53"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="18"/>
@@ -1605,15 +1613,15 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="54"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
       <c r="D33" s="18"/>
@@ -1621,15 +1629,15 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="55"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
       <c r="D34" s="22"/>
@@ -1638,11 +1646,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1663,7 +1671,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>182215</v>
+        <v>183415</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1671,7 +1679,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>63019</v>
+        <v>103019</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1694,7 +1702,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>119196</v>
+        <v>80396</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44609</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-40254</v>
+        <v>-80254</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-9264</v>
+        <v>-49264</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,11 +1209,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>79196</v>
+        <v>39196</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,15 +1225,19 @@
       <c r="D8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44622</v>
+      </c>
+      <c r="G8" s="16">
+        <v>40000</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,11 +1249,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1265,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1281,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1293,11 +1297,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1309,11 +1313,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1329,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1345,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1361,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1377,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1393,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1409,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1425,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1441,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1457,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1473,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1489,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1505,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1521,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1537,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1553,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1569,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1585,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1601,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1617,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1633,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1646,11 +1650,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1679,7 +1683,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>103019</v>
+        <v>143019</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1702,7 +1706,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>80396</v>
+        <v>40396</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>TOY GALLERY -AYUSH</t>
-  </si>
-  <si>
-    <t>gst</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A5" sqref="A5:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,99 +1142,67 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44501</v>
-      </c>
-      <c r="B5" s="8">
-        <v>62765</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44544</v>
-      </c>
-      <c r="G5" s="8">
-        <v>30000</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-80254</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>121</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44499</v>
-      </c>
-      <c r="B6" s="8">
-        <v>30990</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44564</v>
-      </c>
-      <c r="G6" s="8">
-        <v>33019</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-49264</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>123</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44503</v>
-      </c>
-      <c r="B7" s="16">
-        <v>88460</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44608</v>
-      </c>
-      <c r="G7" s="16">
-        <v>40000</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>39196</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>119</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="16">
-        <v>1200</v>
-      </c>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="15">
-        <v>44622</v>
-      </c>
-      <c r="G8" s="16">
-        <v>40000</v>
-      </c>
+      <c r="D8" s="18"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,11 +1214,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1230,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1313,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44622</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1675,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>183415</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1683,7 +1648,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>143019</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1706,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>40396</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44634</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44670</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>TOY GALLERY -AYUSH</t>
+  </si>
+  <si>
+    <t>extra goods</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,51 +1145,69 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44714</v>
+      </c>
+      <c r="B5" s="8">
+        <v>43686</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44741</v>
+      </c>
+      <c r="G5" s="8">
+        <v>25000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>18686</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44713</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>44715</v>
+      </c>
+      <c r="B6" s="8">
+        <v>20121</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>38807</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44713</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>44714</v>
+      </c>
+      <c r="B7" s="16">
+        <v>775</v>
+      </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="51"/>
+      <c r="D7" s="51" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44713</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1198,11 +1219,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1235,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1251,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1267,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1283,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1278,11 +1299,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1315,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1331,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1347,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1363,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1379,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1395,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1411,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1427,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1443,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1459,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1475,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1491,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1507,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1523,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1539,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1555,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1571,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1587,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1603,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1619,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1636,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1640,7 +1661,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>64582</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1648,7 +1669,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1671,7 +1692,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>39582</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="G6" sqref="G6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44747</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>18686</v>
+        <v>-2314</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,15 +1177,19 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44769</v>
+      </c>
+      <c r="G6" s="8">
+        <v>21000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>38807</v>
+        <v>17807</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1203,11 +1207,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1219,11 +1223,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1235,11 +1239,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1251,11 +1255,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1267,11 +1271,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1283,11 +1287,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1299,11 +1303,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1315,11 +1319,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1331,11 +1335,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1347,11 +1351,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1363,11 +1367,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1379,11 +1383,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1395,11 +1399,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1411,11 +1415,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1427,11 +1431,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1443,11 +1447,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,11 +1463,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1475,11 +1479,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,11 +1495,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1507,11 +1511,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1523,11 +1527,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,11 +1543,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1555,11 +1559,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1571,11 +1575,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1587,11 +1591,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,11 +1607,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1623,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1636,11 +1640,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44767</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1669,7 +1673,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>25000</v>
+        <v>46000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1692,7 +1696,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>39582</v>
+        <v>18582</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -54,7 +54,7 @@
     <t>TOY GALLERY -AYUSH</t>
   </si>
   <si>
-    <t>extra goods</t>
+    <t>left transfer</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,73 +1145,55 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44714</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="8">
-        <v>43686</v>
+        <v>331</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44741</v>
-      </c>
-      <c r="G5" s="8">
-        <v>25000</v>
-      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-2314</v>
+        <v>331</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>81</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44715</v>
-      </c>
-      <c r="B6" s="8">
-        <v>20121</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44769</v>
-      </c>
-      <c r="G6" s="8">
-        <v>21000</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>17807</v>
+        <v>331</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>80</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44714</v>
-      </c>
-      <c r="B7" s="16">
-        <v>775</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="51" t="s">
-        <v>12</v>
-      </c>
+      <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>81</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1223,11 +1205,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1239,11 +1221,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1255,11 +1237,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1271,11 +1253,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1287,11 +1269,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1303,11 +1285,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1319,11 +1301,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1335,11 +1317,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1351,11 +1333,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1367,11 +1349,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,11 +1365,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,11 +1381,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,11 +1397,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,11 +1413,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,11 +1429,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,11 +1445,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,11 +1461,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,11 +1477,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,11 +1493,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,11 +1509,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,11 +1525,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,11 +1541,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,11 +1557,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,11 +1573,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,11 +1589,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1605,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1640,11 +1622,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1665,7 +1647,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>64582</v>
+        <v>331</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1673,7 +1655,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>46000</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1696,7 +1678,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>18582</v>
+        <v>331</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -1161,7 +1161,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44809</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -1161,7 +1161,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>TOY GALLERY -AYUSH</t>
-  </si>
-  <si>
-    <t>left transfer</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,22 +1143,18 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="8">
-        <v>331</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,11 +1166,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,11 +1182,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,11 +1198,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,11 +1214,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,11 +1230,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1647,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1678,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,19 +1142,23 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44897</v>
+      </c>
+      <c r="B5" s="8">
+        <v>19000</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44887</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1166,11 +1170,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1186,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1198,11 +1202,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1218,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1234,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1250,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1266,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1278,11 +1282,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1298,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1314,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1330,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1346,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1362,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1378,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1394,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1410,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1426,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1442,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1458,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1474,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1490,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1506,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1522,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1538,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1554,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1570,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1586,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1602,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1619,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1640,7 +1644,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1671,7 +1675,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44915</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1150,15 +1150,19 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44932</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4032</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,11 +1174,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,11 +1190,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,11 +1206,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,11 +1222,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,11 +1238,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,11 +1254,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,11 +1270,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,11 +1286,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,11 +1302,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1318,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1334,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1350,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1366,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1382,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1398,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1414,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1430,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1446,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1462,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1478,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1494,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1510,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1526,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1542,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1558,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1574,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1590,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1606,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1623,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1652,7 +1656,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>4032</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1675,7 +1679,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="A5" sqref="A5:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,27 +1142,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44897</v>
-      </c>
-      <c r="B5" s="8">
-        <v>19000</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44932</v>
-      </c>
-      <c r="G5" s="8">
-        <v>4032</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>59</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1174,11 +1166,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,11 +1182,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1206,11 +1198,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,11 +1214,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,11 +1230,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1286,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1648,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1656,7 +1648,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>4032</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1679,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44959</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44969</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/AYUSH.xlsx
+++ b/IMPORTANT/AYUSH.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
